--- a/biology/Médecine/Examen_invasif/Examen_invasif.xlsx
+++ b/biology/Médecine/Examen_invasif/Examen_invasif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un examen invasif est un examen médical requérant une effraction de la peau plus importante qu'une simple ponction veineuse. Il peut être désagréable (pas obligatoirement) et nécessite parfois une anesthésie locale ou générale. Il peut nécessiter une hospitalisation et comporte un certain nombre d'effets secondaires, voire de risque d'accident.
